--- a/StdPacTypeIDs.xlsx
+++ b/StdPacTypeIDs.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vince\Documents\GitHub\PhoenixPAC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="28605" windowHeight="12435"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="28610" windowHeight="12440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="221">
   <si>
     <t>TID</t>
   </si>
@@ -499,12 +504,192 @@
   </si>
   <si>
     <t>PAC properties list</t>
+  </si>
+  <si>
+    <t>0x0100</t>
+  </si>
+  <si>
+    <t>0x0101</t>
+  </si>
+  <si>
+    <t>0x0102</t>
+  </si>
+  <si>
+    <t>0x0103</t>
+  </si>
+  <si>
+    <t>0x0104</t>
+  </si>
+  <si>
+    <t>0x0105</t>
+  </si>
+  <si>
+    <t>0x0106</t>
+  </si>
+  <si>
+    <t>0x0200</t>
+  </si>
+  <si>
+    <t>0x0201</t>
+  </si>
+  <si>
+    <t>0x0202</t>
+  </si>
+  <si>
+    <t>0x0203</t>
+  </si>
+  <si>
+    <t>0x0204</t>
+  </si>
+  <si>
+    <t>0x0205</t>
+  </si>
+  <si>
+    <t>0x0300</t>
+  </si>
+  <si>
+    <t>0x0301</t>
+  </si>
+  <si>
+    <t>0x0302</t>
+  </si>
+  <si>
+    <t>0x0303</t>
+  </si>
+  <si>
+    <t>0x0304</t>
+  </si>
+  <si>
+    <t>0x0400</t>
+  </si>
+  <si>
+    <t>0x0401</t>
+  </si>
+  <si>
+    <t>0x0402</t>
+  </si>
+  <si>
+    <t>0x0403</t>
+  </si>
+  <si>
+    <t>0x0500</t>
+  </si>
+  <si>
+    <t>0x0501</t>
+  </si>
+  <si>
+    <t>0x0600</t>
+  </si>
+  <si>
+    <t>0x0601</t>
+  </si>
+  <si>
+    <t>0x0602</t>
+  </si>
+  <si>
+    <t>0x0603</t>
+  </si>
+  <si>
+    <t>0x0604</t>
+  </si>
+  <si>
+    <t>0x0605</t>
+  </si>
+  <si>
+    <t>0x0700</t>
+  </si>
+  <si>
+    <t>0x0701</t>
+  </si>
+  <si>
+    <t>0x0702</t>
+  </si>
+  <si>
+    <t>0x0703</t>
+  </si>
+  <si>
+    <t>0x0704</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>TID Min</t>
+  </si>
+  <si>
+    <t>TID Max</t>
+  </si>
+  <si>
+    <t>0x00FF</t>
+  </si>
+  <si>
+    <t>0x01FF</t>
+  </si>
+  <si>
+    <t>0x02FF</t>
+  </si>
+  <si>
+    <t>0x03FF</t>
+  </si>
+  <si>
+    <t>0x04FF</t>
+  </si>
+  <si>
+    <t>0x05FF</t>
+  </si>
+  <si>
+    <t>0x06FF</t>
+  </si>
+  <si>
+    <t>0x07FF</t>
+  </si>
+  <si>
+    <t>app private</t>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+  </si>
+  <si>
+    <t>0x8000</t>
+  </si>
+  <si>
+    <t>dds</t>
+  </si>
+  <si>
+    <t>DirectDrawSurface</t>
+  </si>
+  <si>
+    <t>0x0206</t>
+  </si>
+  <si>
+    <t>application/x-lua-bytecode</t>
+  </si>
+  <si>
+    <t>luac</t>
+  </si>
+  <si>
+    <t>Lua Bytecode</t>
+  </si>
+  <si>
+    <t>application/x-lua</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>Lua script</t>
+  </si>
+  <si>
+    <t>image/vnd-ms.dds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,6 +823,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -662,7 +848,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,6 +857,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -720,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,9 +941,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,6 +993,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -964,22 +1186,785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
+      <c r="B28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection sqref="A1:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>145</v>
       </c>
@@ -996,8 +1981,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1013,8 +1998,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1028,8 +2013,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1045,8 +2030,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1060,8 +2045,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1075,8 +2060,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1090,8 +2075,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1105,8 +2090,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1120,8 +2105,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1135,8 +2120,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1152,8 +2137,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1167,8 +2152,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1182,8 +2167,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
       <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1197,8 +2182,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
@@ -1212,8 +2197,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
@@ -1227,8 +2212,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1244,8 +2229,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
@@ -1259,8 +2244,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
         <v>71</v>
       </c>
@@ -1274,8 +2259,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -1289,8 +2274,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>81</v>
       </c>
@@ -1304,8 +2289,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1321,8 +2306,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
         <v>86</v>
       </c>
@@ -1336,8 +2321,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
       <c r="B24" s="4" t="s">
         <v>89</v>
       </c>
@@ -1351,8 +2336,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
@@ -1366,8 +2351,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
         <v>141</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1383,8 +2368,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
       <c r="B27" s="5" t="s">
         <v>97</v>
       </c>
@@ -1398,8 +2383,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>142</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1415,8 +2400,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
         <v>99</v>
       </c>
@@ -1430,8 +2415,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>100</v>
       </c>
@@ -1445,8 +2430,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
       <c r="B31" s="6" t="s">
         <v>101</v>
       </c>
@@ -1460,8 +2445,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
       <c r="B32" s="6" t="s">
         <v>102</v>
       </c>
@@ -1475,8 +2460,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
       <c r="B33" s="6" t="s">
         <v>103</v>
       </c>
@@ -1490,8 +2475,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1507,8 +2492,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
       <c r="B35" s="8" t="s">
         <v>108</v>
       </c>
@@ -1522,8 +2507,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
       <c r="B36" s="8" t="s">
         <v>112</v>
       </c>
@@ -1537,20 +2522,20 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
       <c r="B37" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
       <c r="B38" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C40" t="s">
@@ -1563,8 +2548,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C41" t="s">
@@ -1577,8 +2562,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1596,28 +2581,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/StdPacTypeIDs.xlsx
+++ b/StdPacTypeIDs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vince\Documents\GitHub\PhoenixPAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vince\Desktop\Files\Programming\projects\PhoenixPAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="28610" windowHeight="12440"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="28605" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
   <si>
     <t>TID</t>
   </si>
@@ -684,6 +684,51 @@
   </si>
   <si>
     <t>image/vnd-ms.dds</t>
+  </si>
+  <si>
+    <t>0x0107</t>
+  </si>
+  <si>
+    <t>0x0108</t>
+  </si>
+  <si>
+    <t>vert.glsl</t>
+  </si>
+  <si>
+    <t>frag.glsl</t>
+  </si>
+  <si>
+    <t>0x0109</t>
+  </si>
+  <si>
+    <t>geom.glsl</t>
+  </si>
+  <si>
+    <t>GLSL geometry shader source</t>
+  </si>
+  <si>
+    <t>GLSL fragment shader source</t>
+  </si>
+  <si>
+    <t>GLSL vertex shader source</t>
+  </si>
+  <si>
+    <t>0x010A</t>
+  </si>
+  <si>
+    <t>tessc.glsl</t>
+  </si>
+  <si>
+    <t>GLSL tessellation control shader source</t>
+  </si>
+  <si>
+    <t>0x010B</t>
+  </si>
+  <si>
+    <t>tesse.glsl</t>
+  </si>
+  <si>
+    <t>GLSL tessellation evaluation shader source</t>
   </si>
 </sst>
 </file>
@@ -809,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -824,19 +869,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1186,21 +1237,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>145</v>
       </c>
@@ -1217,8 +1268,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1234,8 +1285,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1249,8 +1300,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1266,8 +1317,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>162</v>
       </c>
@@ -1281,8 +1332,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>163</v>
       </c>
@@ -1296,8 +1347,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>164</v>
       </c>
@@ -1311,8 +1362,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
       <c r="B8" s="1" t="s">
         <v>165</v>
       </c>
@@ -1326,8 +1377,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>166</v>
       </c>
@@ -1341,8 +1392,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>167</v>
       </c>
@@ -1356,463 +1407,538 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>220</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>211</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="4" t="s">
-        <v>181</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>61</v>
       </c>
       <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D31" t="s">
         <v>94</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>113</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D32" t="s">
         <v>114</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="5" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>115</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D33" t="s">
         <v>116</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>120</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" t="s">
         <v>150</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D35" t="s">
         <v>135</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="6" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="6" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="6" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>129</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>130</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="6" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>143</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" t="s">
         <v>144</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E39" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>132</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D40" t="s">
         <v>133</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E40" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-      <c r="B36" s="8" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>105</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" t="s">
         <v>106</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="8" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D42" t="s">
         <v>110</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E42" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
-      <c r="B38" s="8" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
         <v>217</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D43" t="s">
         <v>218</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="8" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" t="s">
         <v>214</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D44" t="s">
         <v>215</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E44" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1827,12 +1953,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -1843,7 +1969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -1854,7 +1980,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -1865,7 +1991,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -1876,7 +2002,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1887,7 +2013,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1898,7 +2024,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -1909,7 +2035,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1920,7 +2046,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -1931,7 +2057,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -1955,16 +2081,16 @@
       <selection sqref="A1:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>145</v>
       </c>
@@ -1981,8 +2107,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1998,8 +2124,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2013,8 +2139,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2030,8 +2156,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2045,8 +2171,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2060,8 +2186,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2075,8 +2201,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2090,8 +2216,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2105,8 +2231,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2120,7 +2246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>138</v>
       </c>
@@ -2137,7 +2263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>43</v>
@@ -2152,7 +2278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="2" t="s">
         <v>47</v>
@@ -2167,7 +2293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="2" t="s">
         <v>51</v>
@@ -2182,7 +2308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
         <v>55</v>
@@ -2197,7 +2323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
         <v>59</v>
@@ -2212,8 +2338,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2229,8 +2355,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
@@ -2244,8 +2370,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
         <v>71</v>
       </c>
@@ -2259,8 +2385,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -2274,8 +2400,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
         <v>81</v>
       </c>
@@ -2289,8 +2415,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2306,8 +2432,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2321,8 +2447,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>89</v>
       </c>
@@ -2336,8 +2462,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
@@ -2351,8 +2477,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2368,8 +2494,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>97</v>
       </c>
@@ -2383,8 +2509,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2400,8 +2526,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
       <c r="B29" s="6" t="s">
         <v>99</v>
       </c>
@@ -2415,8 +2541,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
       <c r="B30" s="6" t="s">
         <v>100</v>
       </c>
@@ -2430,8 +2556,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
       <c r="B31" s="6" t="s">
         <v>101</v>
       </c>
@@ -2445,8 +2571,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
       <c r="B32" s="6" t="s">
         <v>102</v>
       </c>
@@ -2460,8 +2586,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
       <c r="B33" s="6" t="s">
         <v>103</v>
       </c>
@@ -2475,8 +2601,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -2492,8 +2618,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="B35" s="8" t="s">
         <v>108</v>
       </c>
@@ -2507,8 +2633,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
       <c r="B36" s="8" t="s">
         <v>112</v>
       </c>
@@ -2522,19 +2648,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
       <c r="B37" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
       <c r="B38" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>151</v>
       </c>
@@ -2548,7 +2674,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>154</v>
       </c>
@@ -2562,7 +2688,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>158</v>
       </c>
